--- a/Data/SNV_filtering_inputs/PillarProject_filtering/XRCC2/20250822_XRCC2_filtering_input.xlsx
+++ b/Data/SNV_filtering_inputs/PillarProject_filtering/XRCC2/20250822_XRCC2_filtering_input.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ivan/Documents/GitHub/BARD1_SGE_analysis/Data/SNV_filtering_inputs/PillarProject_filtering/XRCC2/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CB3C9F4F-3D33-E545-B17D-0D50BC6E23BF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E7326D39-620D-A544-8D85-B7091920E1A5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="18560" windowHeight="18000" xr2:uid="{67603689-5F57-F947-B3B0-443DE32EA49E}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="18560" windowHeight="16260" xr2:uid="{67603689-5F57-F947-B3B0-443DE32EA49E}"/>
   </bookViews>
   <sheets>
     <sheet name="targets" sheetId="1" r:id="rId1"/>
@@ -464,7 +464,7 @@
   <dimension ref="A1:C12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G15" sqref="G15"/>
+      <selection activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -502,7 +502,7 @@
         <v>152660850</v>
       </c>
       <c r="C3" s="1">
-        <v>152660733</v>
+        <v>152660726</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="17" x14ac:dyDescent="0.25">
